--- a/DaySale_2025-05-27_19-46.xlsx
+++ b/DaySale_2025-05-27_19-46.xlsx
@@ -47,7 +47,7 @@
     <t>ADOLOR 30 MG 3 AMPS.</t>
   </si>
   <si>
-    <t>2:3</t>
+    <t>2:2</t>
   </si>
   <si>
     <t>1</t>
@@ -56,24 +56,27 @@
     <t>36.00</t>
   </si>
   <si>
-    <t>36.0000</t>
+    <t>47.8800</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>100.0000</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>AGIOLAX 12 GRANULES IN SACHETS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>100.00</t>
-  </si>
-  <si>
-    <t>100.0000</t>
-  </si>
-  <si>
     <t>ASPOCID PAEDIATRIC 75MG 30 CHEWABLE TAB.</t>
   </si>
   <si>
@@ -116,6 +119,18 @@
     <t>80.0000</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>COGINTOL 20 TAB.</t>
   </si>
   <si>
@@ -134,9 +149,6 @@
     <t>D DEP 1000 CAPS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>200.00</t>
   </si>
   <si>
@@ -152,15 +164,15 @@
     <t>DICETEL 100MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>164.0000</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
     <t>DIGESTOZYME 20 ENTERIC COATED TABLETS (DIGENORM)</t>
   </si>
   <si>
@@ -281,6 +293,15 @@
     <t>46.00</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>VARDE 20 MG 4 F.C. TABS</t>
   </si>
   <si>
@@ -305,19 +326,52 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8716:0</t>
+    <t>8715:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>50:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>9.2000</t>
+    <t>11.2000</t>
   </si>
   <si>
     <t>سرنجات دواء 5 سم</t>
@@ -344,10 +398,7 @@
     <t>25:0</t>
   </si>
   <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
+    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>ماء اكسجين 20</t>
@@ -356,16 +407,16 @@
     <t>6:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
     <t>21:0</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>Tuesday, 27 May, 2025 7:46 PM</t>
@@ -1059,7 +1110,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1068,14 +1119,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1085,14 +1136,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1101,14 +1152,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1118,14 +1169,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1134,31 +1185,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1167,14 +1218,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1184,14 +1235,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1200,14 +1251,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1217,14 +1268,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1233,31 +1284,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1266,31 +1317,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1299,14 +1350,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,14 +1367,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1339,7 +1390,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1356,7 +1407,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1365,14 +1416,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1433,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1449,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1415,14 +1466,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1431,14 +1482,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1448,14 +1499,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1471,7 +1522,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1481,14 +1532,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>66</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>41</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1504,7 +1555,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1565,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1581,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1547,14 +1598,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1563,14 +1614,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1587,7 +1638,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1596,31 +1647,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1629,31 +1680,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1669,7 +1720,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1679,14 +1730,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1695,14 +1746,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1763,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1779,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1796,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1761,14 +1812,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1778,14 +1829,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,14 +1845,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1811,14 +1862,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1827,14 +1878,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1844,14 +1895,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>96</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1860,14 +1911,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1877,14 +1928,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1893,31 +1944,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>102</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1926,31 +1977,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1959,31 +2010,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1992,31 +2043,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2025,31 +2076,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2058,66 +2109,297 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1262.4400000000001</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>119</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>120</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>121</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>21</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>33</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>122</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>124</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>18</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>33</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>125</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>126</v>
+      </c>
+      <c t="s" r="Q41" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>127</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>128</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>33</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>114</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>129</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>28</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>33</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>110</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>130</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>131</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>33</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>110</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>132</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>133</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>33</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>110</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>134</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>28</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>33</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>69</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1617.05</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>136</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>137</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>138</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2291,10 +2573,45 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
